--- a/assignment1/testinputs/assign-1.xlsx
+++ b/assignment1/testinputs/assign-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="22176" windowHeight="8316" tabRatio="715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="18876" windowHeight="8316" tabRatio="715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MasterSheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="login" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:G27"/>
+  <oleSize ref="A1:I27"/>
 </workbook>
 </file>
 
@@ -633,7 +633,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -1125,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
